--- a/src/test/java/com/ptpl/testdata/sample.xlsx
+++ b/src/test/java/com/ptpl/testdata/sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t xml:space="preserve">Zone</t>
   </si>
@@ -205,11 +205,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -230,10 +230,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -280,34 +280,34 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>854</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="K2" s="0" t="s">
@@ -318,34 +318,34 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>853</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="0" t="s">
@@ -356,10 +356,10 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="0" t="s">
@@ -370,13 +370,13 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="0" t="s">
@@ -384,13 +384,30 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H6" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
